--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DB1F7-9172-4413-A7F5-6F9410A9A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD47AE10-BC9F-4A88-AD1F-ED7BB81030C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="333">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>MC33078</t>
-  </si>
-  <si>
-    <t>U6, U8, U16, U106, U107</t>
   </si>
   <si>
     <t>595-MC33078DR</t>
@@ -1534,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1579,11 +1576,11 @@
       </c>
       <c r="D5" s="4">
         <f>'Base RF Board'!A53</f>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="5">
         <f>'Base RF Board'!H53</f>
-        <v>59.309000000000012</v>
+        <v>58.469000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1667,11 +1664,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="6">
         <f>SUM(D5:D10)</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="7">
         <f>SUM(E5:E10)</f>
-        <v>110.459</v>
+        <v>109.619</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1685,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2784,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:H65" si="1">G34*A34</f>
+        <f t="shared" ref="H34:H57" si="1">G34*A34</f>
         <v>0.1</v>
       </c>
       <c r="I34" t="s">
@@ -3048,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>230</v>
@@ -3117,35 +3114,35 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
         <v>243</v>
-      </c>
-      <c r="D45" t="s">
-        <v>244</v>
       </c>
       <c r="G45" s="11">
         <v>0.84</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>3.36</v>
       </c>
       <c r="I45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" t="s">
         <v>245</v>
-      </c>
-      <c r="J45" t="s">
-        <v>246</v>
       </c>
       <c r="K45" t="s">
         <v>240</v>
       </c>
       <c r="L45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3153,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" t="s">
         <v>249</v>
-      </c>
-      <c r="D46" t="s">
-        <v>250</v>
       </c>
       <c r="G46" s="11">
         <v>0.47</v>
@@ -3174,13 +3171,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" t="s">
         <v>252</v>
-      </c>
-      <c r="D47" t="s">
-        <v>253</v>
       </c>
       <c r="G47" s="11">
         <v>1.03</v>
@@ -3190,16 +3187,16 @@
         <v>4.12</v>
       </c>
       <c r="I47" t="s">
+        <v>252</v>
+      </c>
+      <c r="J47" t="s">
         <v>253</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>254</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>255</v>
-      </c>
-      <c r="L47" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3207,13 +3204,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" t="s">
         <v>258</v>
-      </c>
-      <c r="D48" t="s">
-        <v>259</v>
       </c>
       <c r="G48" s="11">
         <v>2.14</v>
@@ -3223,16 +3220,16 @@
         <v>2.14</v>
       </c>
       <c r="I48" t="s">
+        <v>258</v>
+      </c>
+      <c r="J48" t="s">
         <v>259</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>260</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>261</v>
-      </c>
-      <c r="L48" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3240,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" t="s">
         <v>264</v>
-      </c>
-      <c r="D49" t="s">
-        <v>265</v>
       </c>
       <c r="G49" s="11">
         <v>1.87</v>
@@ -3256,16 +3253,16 @@
         <v>1.87</v>
       </c>
       <c r="I49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K49" t="s">
         <v>217</v>
       </c>
       <c r="L49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3273,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" t="s">
         <v>268</v>
-      </c>
-      <c r="D50" t="s">
-        <v>269</v>
       </c>
       <c r="G50" s="11">
         <v>2.46</v>
@@ -3289,16 +3286,16 @@
         <v>2.46</v>
       </c>
       <c r="I50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s">
         <v>240</v>
       </c>
       <c r="L50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3306,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" t="s">
         <v>272</v>
-      </c>
-      <c r="D51" t="s">
-        <v>273</v>
       </c>
       <c r="G51" s="11">
         <v>1.69</v>
@@ -3322,16 +3319,16 @@
         <v>1.69</v>
       </c>
       <c r="I51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" t="s">
         <v>273</v>
-      </c>
-      <c r="J51" t="s">
-        <v>274</v>
       </c>
       <c r="K51" t="s">
         <v>240</v>
       </c>
       <c r="L51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3339,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" t="s">
         <v>277</v>
-      </c>
-      <c r="D52" t="s">
-        <v>278</v>
       </c>
       <c r="G52" s="11">
         <v>0.46</v>
@@ -3355,16 +3352,16 @@
         <v>0.46</v>
       </c>
       <c r="I52" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" t="s">
         <v>279</v>
-      </c>
-      <c r="J52" t="s">
-        <v>280</v>
       </c>
       <c r="K52" t="s">
         <v>122</v>
       </c>
       <c r="L52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3372,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" t="s">
         <v>283</v>
-      </c>
-      <c r="D53" t="s">
-        <v>284</v>
       </c>
       <c r="G53" s="11">
         <v>1.42</v>
@@ -3388,16 +3385,16 @@
         <v>1.42</v>
       </c>
       <c r="I53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J53" t="s">
         <v>284</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>285</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>286</v>
-      </c>
-      <c r="L53" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3405,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" t="s">
         <v>289</v>
-      </c>
-      <c r="D54" t="s">
-        <v>290</v>
       </c>
       <c r="G54" s="11">
         <v>12.52</v>
@@ -3421,16 +3418,16 @@
         <v>25.04</v>
       </c>
       <c r="I54" t="s">
+        <v>289</v>
+      </c>
+      <c r="J54" t="s">
         <v>290</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>291</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>292</v>
-      </c>
-      <c r="L54" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3438,13 +3435,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" t="s">
         <v>295</v>
-      </c>
-      <c r="D55" t="s">
-        <v>296</v>
       </c>
       <c r="E55" t="s">
         <v>82</v>
@@ -3457,16 +3454,16 @@
         <v>9.86</v>
       </c>
       <c r="I55" t="s">
+        <v>296</v>
+      </c>
+      <c r="J55" t="s">
         <v>297</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>298</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>299</v>
-      </c>
-      <c r="L55" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3474,16 +3471,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" t="s">
         <v>302</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>303</v>
-      </c>
-      <c r="E56" t="s">
-        <v>304</v>
       </c>
       <c r="G56" s="11">
         <v>0.45</v>
@@ -3493,16 +3490,16 @@
         <v>0.45</v>
       </c>
       <c r="I56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J56" t="s">
+        <v>304</v>
+      </c>
+      <c r="K56" t="s">
+        <v>298</v>
+      </c>
+      <c r="L56" t="s">
         <v>305</v>
-      </c>
-      <c r="K56" t="s">
-        <v>299</v>
-      </c>
-      <c r="L56" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3510,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="F57" t="s">
         <v>308</v>
-      </c>
-      <c r="F57" t="s">
-        <v>309</v>
       </c>
       <c r="G57" s="11">
         <v>0.02</v>
@@ -3529,14 +3526,14 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <f>SUM(A2:A57)</f>
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
         <v>82</v>
       </c>
       <c r="H58" s="16">
         <f>SUM(H2:H57)</f>
-        <v>106.74300000000001</v>
+        <v>109.26299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3549,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3682,7 +3679,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -3892,7 +3889,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -4039,7 +4036,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
         <v>142</v>
@@ -4123,7 +4120,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D27" t="s">
         <v>163</v>
@@ -4273,13 +4270,13 @@
         <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:H65" si="1">G34*A34</f>
+        <f t="shared" ref="H34:H52" si="1">G34*A34</f>
         <v>0.1</v>
       </c>
     </row>
@@ -4438,10 +4435,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>238</v>
@@ -4459,23 +4456,23 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G43" s="11">
         <v>0.84</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -4483,13 +4480,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" t="s">
         <v>249</v>
-      </c>
-      <c r="D44" t="s">
-        <v>250</v>
       </c>
       <c r="G44" s="11">
         <v>0.47</v>
@@ -4504,13 +4501,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G45" s="11">
         <v>1.03</v>
@@ -4525,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" t="s">
         <v>258</v>
-      </c>
-      <c r="D46" t="s">
-        <v>259</v>
       </c>
       <c r="G46" s="11">
         <v>2.14</v>
@@ -4546,13 +4543,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" t="s">
         <v>264</v>
-      </c>
-      <c r="D47" t="s">
-        <v>265</v>
       </c>
       <c r="G47" s="11">
         <v>1.87</v>
@@ -4567,13 +4564,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" t="s">
         <v>268</v>
-      </c>
-      <c r="D48" t="s">
-        <v>269</v>
       </c>
       <c r="G48" s="11">
         <v>2.46</v>
@@ -4588,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" t="s">
         <v>272</v>
-      </c>
-      <c r="D49" t="s">
-        <v>273</v>
       </c>
       <c r="G49" s="11">
         <v>1.69</v>
@@ -4609,13 +4606,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" t="s">
         <v>277</v>
-      </c>
-      <c r="D50" t="s">
-        <v>278</v>
       </c>
       <c r="G50" s="11">
         <v>0.46</v>
@@ -4630,16 +4627,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" t="s">
         <v>302</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>303</v>
-      </c>
-      <c r="E51" t="s">
-        <v>304</v>
       </c>
       <c r="G51" s="11">
         <v>0.45</v>
@@ -4654,13 +4651,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="F52" t="s">
         <v>308</v>
-      </c>
-      <c r="F52" t="s">
-        <v>309</v>
       </c>
       <c r="G52" s="11">
         <v>0.02</v>
@@ -4673,12 +4670,12 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <f>SUM(A2:A52)</f>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="16">
         <f>SUM(H2:H52)</f>
-        <v>59.309000000000012</v>
+        <v>58.469000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4738,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -4764,7 +4761,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
@@ -4784,16 +4781,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="5">
         <v>9.86</v>
@@ -4873,7 +4870,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -4912,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>238</v>
@@ -4936,13 +4933,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G5" s="5">
         <v>1.03</v>
@@ -4957,13 +4954,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>289</v>
-      </c>
-      <c r="D6" t="s">
-        <v>290</v>
       </c>
       <c r="G6" s="5">
         <v>12.52</v>
@@ -5043,7 +5040,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -5064,7 +5061,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -5082,13 +5079,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" t="s">
-        <v>284</v>
       </c>
       <c r="G4" s="5">
         <v>1.42</v>
@@ -5167,7 +5164,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -5188,7 +5185,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
         <v>142</v>
@@ -5206,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
@@ -5295,7 +5292,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -5316,7 +5313,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
         <v>142</v>
@@ -5334,10 +5331,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD47AE10-BC9F-4A88-AD1F-ED7BB81030C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F235B-13D8-482E-B380-2329D0EEEF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Overall RF Board" sheetId="2" r:id="rId2"/>
     <sheet name="Base RF Board" sheetId="3" r:id="rId3"/>
-    <sheet name="TCXO Option" sheetId="4" r:id="rId4"/>
-    <sheet name="MF Option" sheetId="5" r:id="rId5"/>
-    <sheet name="I2C Control" sheetId="6" r:id="rId6"/>
-    <sheet name="TX Gain Control" sheetId="7" r:id="rId7"/>
-    <sheet name="RX Gain Control" sheetId="8" r:id="rId8"/>
+    <sheet name="Board As Second RX" sheetId="9" r:id="rId4"/>
+    <sheet name="TCXO Option" sheetId="4" r:id="rId5"/>
+    <sheet name="MF Option" sheetId="5" r:id="rId6"/>
+    <sheet name="I2C Control" sheetId="6" r:id="rId7"/>
+    <sheet name="TX Gain Control" sheetId="7" r:id="rId8"/>
+    <sheet name="RX Gain Control" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$59</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="350">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -1045,6 +1046,57 @@
   </si>
   <si>
     <t>PE4312 (or DAT-31R5A-PP+)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>C4, C10, C17, C28</t>
+  </si>
+  <si>
+    <t>L1, L2, L3, L6, L107</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>R7, R9, R12, R20, R21, R23</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP15, TP16, TP17, TP18</t>
+  </si>
+  <si>
+    <t>C1, C3, C11, C12, C14, C67, C71</t>
+  </si>
+  <si>
+    <t>R4, R8, R16, R22</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>C6, C7, C13, C16, C18, C20, C22, C23, C25, C26, C27,  C52, C68, C70, C72, C73</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>JP4</t>
+  </si>
+  <si>
+    <t>Calibration Enable - IDC 1x2</t>
+  </si>
+  <si>
+    <t>IQ_Out, 1/8" Stereo Jack</t>
+  </si>
+  <si>
+    <t>RF_IN, SMA Female</t>
+  </si>
+  <si>
+    <t>Built as RX #2 Base Bd</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1107,6 +1159,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1149,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,6 +1252,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1529,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,12 +1634,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <f>'Base RF Board'!A53</f>
-        <v>189</v>
+        <f>'Base RF Board'!A54</f>
+        <v>190</v>
       </c>
       <c r="E5" s="5">
-        <f>'Base RF Board'!H53</f>
-        <v>58.469000000000008</v>
+        <f>'Base RF Board'!H54</f>
+        <v>58.489000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1664,11 +1723,27 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="6">
         <f>SUM(D5:D10)</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E11" s="7">
         <f>SUM(E5:E10)</f>
-        <v>109.619</v>
+        <v>109.63900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="4">
+        <f>'Board As Second RX'!A35</f>
+        <v>104</v>
+      </c>
+      <c r="E13" s="20">
+        <f>'Board As Second RX'!H35</f>
+        <v>34.748999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1682,10 +1757,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,7 +1833,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H33" si="0">G2*A2</f>
+        <f t="shared" ref="H2:H34" si="0">G2*A2</f>
         <v>2.3630000000000004</v>
       </c>
       <c r="I2" t="s">
@@ -2163,13 +2238,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
         <v>98</v>
@@ -2179,7 +2254,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2187,10 +2262,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2205,464 +2280,452 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
       </c>
       <c r="G17" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>1.2600000000000002</v>
-      </c>
-      <c r="I17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" t="s">
-        <v>106</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G18" s="11">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.2600000000000002</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" s="11">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>0.7</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K19" t="s">
         <v>111</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G20" s="11">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>1.41</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G21" s="11">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>0.37</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G22" s="11">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="11">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
         <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G24" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>0.23800000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s">
         <v>133</v>
       </c>
       <c r="L24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="I25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G26" s="11">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G27" s="11">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s">
         <v>133</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G28" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
       </c>
       <c r="G29" s="11">
-        <v>0.1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s">
         <v>149</v>
       </c>
       <c r="L29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G30" s="11">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2670,13 +2733,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
@@ -2686,16 +2749,16 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2703,13 +2766,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
@@ -2719,49 +2782,49 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K32" t="s">
         <v>149</v>
       </c>
       <c r="L32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
         <v>149</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2769,32 +2832,32 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:H57" si="1">G34*A34</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L34" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2802,32 +2865,32 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H35:H58" si="1">G35*A35</f>
         <v>0.1</v>
       </c>
       <c r="I35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s">
         <v>133</v>
       </c>
       <c r="L35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2835,13 +2898,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
@@ -2851,16 +2914,16 @@
         <v>0.1</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s">
         <v>133</v>
       </c>
       <c r="L36" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2868,13 +2931,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G37" s="11">
         <v>0.1</v>
@@ -2884,70 +2947,70 @@
         <v>0.1</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s">
         <v>133</v>
       </c>
       <c r="L37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
       </c>
       <c r="G38" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>209</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
       </c>
       <c r="G39" s="11">
-        <v>4.0199999999999996</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="I39" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" t="s">
-        <v>214</v>
-      </c>
-      <c r="K39" t="s">
-        <v>217</v>
-      </c>
-      <c r="L39" t="s">
-        <v>218</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2955,26 +3018,26 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G40" s="11">
-        <v>5.17</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>5.17</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s">
         <v>217</v>
@@ -2985,251 +3048,251 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G41" s="11">
-        <v>0.85</v>
+        <v>5.17</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>5.17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" t="s">
+        <v>219</v>
+      </c>
+      <c r="K41" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
       </c>
       <c r="G42" s="11">
-        <v>3.6</v>
+        <v>0.85</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>228</v>
-      </c>
-      <c r="J42" t="s">
-        <v>226</v>
-      </c>
-      <c r="K42" t="s">
-        <v>217</v>
-      </c>
-      <c r="L42" t="s">
-        <v>229</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="G43" s="11">
-        <v>5.32</v>
+        <v>3.6</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>10.64</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J43" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
       </c>
       <c r="E44" t="s">
         <v>82</v>
       </c>
       <c r="G44" s="11">
-        <v>0.33</v>
+        <v>5.32</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>0.99</v>
+        <v>10.64</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" t="s">
-        <v>243</v>
+        <v>236</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
       </c>
       <c r="G45" s="11">
-        <v>0.84</v>
+        <v>0.33</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>3.36</v>
+        <v>0.99</v>
       </c>
       <c r="I45" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K45" t="s">
         <v>240</v>
       </c>
       <c r="L45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G46" s="11">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>3.36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46" t="s">
+        <v>245</v>
+      </c>
+      <c r="K46" t="s">
+        <v>240</v>
+      </c>
+      <c r="L46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G47" s="11">
-        <v>1.03</v>
+        <v>0.47</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>4.12</v>
-      </c>
-      <c r="I47" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" t="s">
-        <v>254</v>
-      </c>
-      <c r="L47" t="s">
-        <v>255</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G48" s="11">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>4.12</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L48" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3237,32 +3300,32 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G49" s="11">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K49" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3270,32 +3333,32 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G50" s="11">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J50" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3303,32 +3366,32 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G51" s="11">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="I51" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J51" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s">
         <v>240</v>
       </c>
       <c r="L51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3336,32 +3399,32 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G52" s="11">
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="I52" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J52" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3369,101 +3432,98 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G53" s="11">
-        <v>1.42</v>
+        <v>0.46</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.42</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J53" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K53" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G54" s="11">
-        <v>12.52</v>
+        <v>1.42</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>25.04</v>
+        <v>1.42</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K54" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="G55" s="11">
-        <v>9.86</v>
+        <v>12.52</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>9.86</v>
+        <v>25.04</v>
       </c>
       <c r="I55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J55" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K55" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L55" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3471,83 +3531,119 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="G56" s="11">
-        <v>0.45</v>
+        <v>9.86</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>9.86</v>
       </c>
       <c r="I56" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J56" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K56" t="s">
         <v>298</v>
       </c>
       <c r="L56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>302</v>
+      </c>
+      <c r="J57" t="s">
+        <v>304</v>
+      </c>
+      <c r="K57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="14">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="14">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>308</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>0.02</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
-        <f>SUM(A2:A57)</f>
-        <v>223</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <f>SUM(A2:A58)</f>
+        <v>224</v>
+      </c>
+      <c r="D59" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="16">
-        <f>SUM(H2:H57)</f>
-        <v>109.26299999999999</v>
+      <c r="H59" s="16">
+        <f>SUM(H2:H58)</f>
+        <v>109.283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="5" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3604,7 +3700,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H33" si="0">G2*A2</f>
+        <f t="shared" ref="H2:H34" si="0">G2*A2</f>
         <v>2.3630000000000004</v>
       </c>
     </row>
@@ -3841,13 +3937,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3856,8 +3952,8 @@
         <v>0.02</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+        <f t="shared" ref="H14" si="1">G14*A14</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -3865,10 +3961,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>98</v>
@@ -3883,254 +3979,254 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
       <c r="G16" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G17" s="11">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="11">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G19" s="11">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G20" s="11">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G21" s="11">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G22" s="11">
         <v>0.1</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G23" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G24" s="11">
-        <v>0.1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G25" s="11">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G26" s="11">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G27" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -4138,41 +4234,41 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>168</v>
+        <v>312</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
       </c>
       <c r="G28" s="11">
-        <v>0.1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G29" s="11">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -4180,13 +4276,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G30" s="11">
         <v>0.1</v>
@@ -4201,13 +4297,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
@@ -4219,23 +4315,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -4243,13 +4339,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
@@ -4264,19 +4360,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:H52" si="1">G34*A34</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -4285,19 +4381,19 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H35:H53" si="2">G35*A35</f>
         <v>0.1</v>
       </c>
     </row>
@@ -4306,62 +4402,62 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H37" s="11">
-        <f t="shared" si="1"/>
+      <c r="H38" s="11">
+        <f t="shared" si="2"/>
         <v>0.504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G38" s="11">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="1"/>
-        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -4369,173 +4465,173 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G39" s="11">
-        <v>5.17</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="1"/>
-        <v>5.17</v>
+        <f t="shared" si="2"/>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G40" s="11">
-        <v>0.85</v>
+        <v>5.17</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
+        <f t="shared" si="2"/>
+        <v>5.17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>225</v>
       </c>
       <c r="G41" s="11">
-        <v>3.6</v>
+        <v>0.85</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
+        <f t="shared" si="2"/>
+        <v>1.7</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
       </c>
       <c r="G42" s="11">
-        <v>0.33</v>
+        <v>3.6</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="1"/>
-        <v>0.66</v>
+        <f t="shared" si="2"/>
+        <v>3.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D43" t="s">
-        <v>243</v>
+        <v>315</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
       </c>
       <c r="G43" s="11">
-        <v>0.84</v>
+        <v>0.33</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="1"/>
-        <v>3.36</v>
+        <f t="shared" si="2"/>
+        <v>0.66</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G44" s="11">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="1"/>
-        <v>0.47</v>
+        <f t="shared" si="2"/>
+        <v>3.36</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G45" s="11">
-        <v>1.03</v>
+        <v>0.47</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="1"/>
-        <v>2.06</v>
+        <f t="shared" si="2"/>
+        <v>0.47</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G46" s="11">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="1"/>
-        <v>2.14</v>
+        <f t="shared" si="2"/>
+        <v>2.06</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -4543,20 +4639,20 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G47" s="11">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="1"/>
-        <v>1.87</v>
+        <f t="shared" si="2"/>
+        <v>2.14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -4564,20 +4660,20 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G48" s="11">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="1"/>
-        <v>2.46</v>
+        <f t="shared" si="2"/>
+        <v>1.87</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -4585,20 +4681,20 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G49" s="11">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" si="1"/>
-        <v>1.69</v>
+        <f t="shared" si="2"/>
+        <v>2.46</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -4606,20 +4702,20 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G50" s="11">
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
+        <f t="shared" si="2"/>
+        <v>1.69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -4627,69 +4723,858 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="2"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>302</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>0.45</v>
       </c>
-      <c r="H51" s="11">
-        <f t="shared" si="1"/>
+      <c r="H52" s="11">
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="14">
         <v>4</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>308</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>0.02</v>
       </c>
-      <c r="H52" s="15">
-        <f t="shared" si="1"/>
+      <c r="H53" s="15">
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
-        <f>SUM(A2:A52)</f>
-        <v>189</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="16">
-        <f>SUM(H2:H52)</f>
-        <v>58.469000000000008</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <f>SUM(A2:A53)</f>
+        <v>190</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="16">
+        <f>SUM(H2:H53)</f>
+        <v>58.489000000000011</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE45E9-B5A9-4ABA-AD41-BAFC0DD9FF54}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:H34" si="0">G2*A2</f>
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.41</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3.35</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="11">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="0"/>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="0"/>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="0"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <f>SUM(A2:A34)</f>
+        <v>104</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="16">
+        <f>SUM(H2:H34)</f>
+        <v>34.748999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="94" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4816,7 +5701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -4986,7 +5871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -5111,12 +5996,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5238,7 +6123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_02-25-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F235B-13D8-482E-B380-2329D0EEEF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B5BF1-7221-4433-9B65-FA25C98AD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="350">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -1009,9 +1009,6 @@
     <t>L7</t>
   </si>
   <si>
-    <t>50-ECS-TXO53-S3-33-400-BN-TRCT-ND - Cut Tape (CT)</t>
-  </si>
-  <si>
     <t>C74, C75, C77, C79, C83, C84</t>
   </si>
   <si>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t>Built as RX #2 Base Bd</t>
+  </si>
+  <si>
+    <t>50-ECS-TXO53-S3-33-250-BN-TRCT-ND - Cut Tape (CT)</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" s="4">
         <f>'Board As Second RX'!A35</f>
@@ -1759,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>98</v>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>230</v>
@@ -3940,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -4858,7 +4858,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -4900,7 +4900,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -4942,7 +4942,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -4981,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -5002,10 +5002,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -5110,7 +5110,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -5131,7 +5131,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -5215,7 +5215,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -5236,7 +5236,7 @@
         <v>140</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D20" t="s">
         <v>142</v>
@@ -5320,7 +5320,7 @@
         <v>211</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F24" t="s">
         <v>213</v>
@@ -5362,7 +5362,7 @@
         <v>222</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
@@ -5407,7 +5407,7 @@
         <v>314</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>238</v>
@@ -5574,7 +5574,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5672,10 +5672,10 @@
         <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="G4" s="5">
         <v>9.86</v>
@@ -5689,6 +5689,9 @@
       <c r="A5" s="4">
         <f>SUM(A2:A4)</f>
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
       </c>
       <c r="H5" s="18">
         <f>SUM(H2:H4)</f>
@@ -5755,7 +5758,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -5797,7 +5800,7 @@
         <v>314</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>238</v>
@@ -5821,7 +5824,7 @@
         <v>250</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
         <v>252</v>
@@ -5925,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -5946,7 +5949,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -6049,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -6070,7 +6073,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
         <v>142</v>
@@ -6088,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
@@ -6177,7 +6180,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -6198,7 +6201,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
         <v>142</v>
@@ -6216,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
